--- a/data/trans_dic/P29_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29_R2_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.006741365009701746</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02422618415149202</v>
+        <v>0.02422618415149203</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01818705148407039</v>
+        <v>0.01993232062117061</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01256903992217608</v>
+        <v>0.01131761115847704</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07783410357666186</v>
+        <v>0.07749601683415311</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03933958559053789</v>
+        <v>0.03365831115227551</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04577248205006976</v>
+        <v>0.04217234498877648</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06062537319674592</v>
+        <v>0.06127216210956458</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01440058086171952</v>
+        <v>0.01497530411402078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04197703407572208</v>
+        <v>0.04126046061532271</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1244749079229782</v>
+        <v>0.1227453488791567</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04409330811582102</v>
+        <v>0.0456583703954794</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07649606070278929</v>
+        <v>0.07751619860649081</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09614846798429141</v>
+        <v>0.09612213453769287</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01376730217948907</v>
+        <v>0.0135073376190221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05862937260686737</v>
+        <v>0.05855520117429237</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1519265239976129</v>
+        <v>0.1506717344272438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03539427433271373</v>
+        <v>0.03549645037640812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08814145881886744</v>
+        <v>0.08865449684899573</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1068412475087604</v>
+        <v>0.1057930090094893</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01785559843010692</v>
+        <v>0.01728677352654619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06358222649383692</v>
+        <v>0.06496927362201463</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1564887129561147</v>
+        <v>0.1566082792493298</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03823585006676838</v>
+        <v>0.03635163429568873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09177494612822562</v>
+        <v>0.09058039109480577</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2404777978311914</v>
+        <v>0.2404777978311913</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0497242203413746</v>
+        <v>0.04972422034137462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1452185555989183</v>
+        <v>0.1452185555989182</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2079897753337895</v>
+        <v>0.2089270823339944</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03756415563633873</v>
+        <v>0.03736425306028972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1275713007291763</v>
+        <v>0.1275385059142059</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2763495402876224</v>
+        <v>0.275291904444477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06410278514103723</v>
+        <v>0.06391128407511379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.164689530998453</v>
+        <v>0.1627241950024866</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.3190321537752751</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0635188565195387</v>
+        <v>0.06351885651953872</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1863849323541371</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2829851863539829</v>
+        <v>0.2831174698042871</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04803113436579646</v>
+        <v>0.04765856632823129</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1649874804153741</v>
+        <v>0.1640691389539546</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3587530968043248</v>
+        <v>0.3628390913910086</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08110084646339819</v>
+        <v>0.08510577448297729</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2106485263116209</v>
+        <v>0.2090234072927463</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.2404576950156983</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02802418406328186</v>
+        <v>0.02802418406328185</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1133260664215532</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1998535456693794</v>
+        <v>0.1994902818927325</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01804827555698614</v>
+        <v>0.01762232107876963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09640568416395312</v>
+        <v>0.09575186622449763</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2839411612072198</v>
+        <v>0.280387729320323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04271572053260883</v>
+        <v>0.04387872499505022</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1350867894629356</v>
+        <v>0.1324345359570449</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.03206753535486157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.09575334199999641</v>
+        <v>0.0957533419999964</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1499647344990363</v>
+        <v>0.1517920886448285</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0275737690103387</v>
+        <v>0.02773340642727296</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08964058213669704</v>
+        <v>0.08919326331497511</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.175233472421133</v>
+        <v>0.1758289925390184</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03726779689148163</v>
+        <v>0.03755592366352876</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1018259326698012</v>
+        <v>0.1030039939129263</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7417</v>
+        <v>8128</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9682</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31740</v>
+        <v>31602</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14261</v>
+        <v>12202</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35259</v>
+        <v>32486</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28912</v>
+        <v>29220</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7202</v>
+        <v>7489</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41011</v>
+        <v>40311</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59361</v>
+        <v>58536</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22051</v>
+        <v>22834</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74736</v>
+        <v>75733</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>59579</v>
+        <v>59563</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8543</v>
+        <v>8381</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72711</v>
+        <v>72619</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>94143</v>
+        <v>93365</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21963</v>
+        <v>22026</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>109311</v>
+        <v>109947</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>74388</v>
+        <v>73658</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13145</v>
+        <v>12726</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>91077</v>
+        <v>93064</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>108955</v>
+        <v>109039</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28149</v>
+        <v>26761</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>131462</v>
+        <v>129750</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>126513</v>
+        <v>127083</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>22793</v>
+        <v>22671</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>155003</v>
+        <v>154963</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>168094</v>
+        <v>167450</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38895</v>
+        <v>38779</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>200103</v>
+        <v>197715</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>114936</v>
+        <v>114989</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21061</v>
+        <v>20898</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>139355</v>
+        <v>138580</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>145709</v>
+        <v>147369</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>35562</v>
+        <v>37318</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>177922</v>
+        <v>176550</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>61994</v>
+        <v>61881</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8344</v>
+        <v>8147</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>74474</v>
+        <v>73969</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>88078</v>
+        <v>86976</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19748</v>
+        <v>20286</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>104356</v>
+        <v>102307</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>528657</v>
+        <v>535099</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>102764</v>
+        <v>103359</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>650081</v>
+        <v>646837</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>617735</v>
+        <v>619834</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>138893</v>
+        <v>139966</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>738451</v>
+        <v>746994</v>
       </c>
     </row>
     <row r="36">
